--- a/examples/Utopia2_planning_single_node_DN/config.xlsx
+++ b/examples/Utopia2_planning_single_node_DN/config.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\hypatia\Examples\Utopia2_planning_single_node_DN\plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/negarnamazifard/Documents/GitHub/Hypatia_SESAM/examples/Utopia2_planning_single_node_DN/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8046682-58FF-FE43-A5A3-67251D364C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="1" r:id="rId1"/>
     <sheet name="Fuels" sheetId="2" r:id="rId2"/>
     <sheet name="Regions" sheetId="3" r:id="rId3"/>
+    <sheet name="Emissions" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>tech_name</t>
   </si>
@@ -113,117 +115,123 @@
     <t>reg1</t>
   </si>
   <si>
+    <t>emission_unit</t>
+  </si>
+  <si>
+    <t>CO2-equivalent</t>
+  </si>
+  <si>
     <t>Oil Resource Extraction</t>
   </si>
   <si>
+    <t>Resource Extraction</t>
+  </si>
+  <si>
+    <t>#7F7F7F</t>
+  </si>
+  <si>
+    <t>Extraction Units</t>
+  </si>
+  <si>
+    <t>1000 BOE</t>
+  </si>
+  <si>
     <t>Oil Refinery</t>
   </si>
   <si>
+    <t>Refinery</t>
+  </si>
+  <si>
+    <t>#BAB0AC</t>
+  </si>
+  <si>
+    <t>1000b/d</t>
+  </si>
+  <si>
     <t>Oil Power Plant</t>
   </si>
   <si>
+    <t>Power Generation</t>
+  </si>
+  <si>
+    <t>rgb(158,185,243)</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>GWh</t>
+  </si>
+  <si>
     <t>Hydro Power Plant</t>
   </si>
   <si>
+    <t>#19D3F3</t>
+  </si>
+  <si>
     <t>Electricity Transmission Line</t>
   </si>
   <si>
+    <t>Power Transmission</t>
+  </si>
+  <si>
+    <t>#778AAE</t>
+  </si>
+  <si>
     <t>Diesel Pipeline</t>
   </si>
   <si>
+    <t>Fuel Transmission</t>
+  </si>
+  <si>
+    <t>#E377C2</t>
+  </si>
+  <si>
     <t>Electric Vehicles Demand</t>
   </si>
   <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>#7E7DCD</t>
+  </si>
+  <si>
     <t>ICE Vehicles Demand</t>
   </si>
   <si>
+    <t>#E48F72</t>
+  </si>
+  <si>
     <t>Household Elecricity Demand</t>
   </si>
   <si>
+    <t>#FF9900</t>
+  </si>
+  <si>
     <t>Other Electricity Demand</t>
   </si>
   <si>
-    <t>Resource Extraction</t>
-  </si>
-  <si>
-    <t>Refinery</t>
-  </si>
-  <si>
-    <t>Power Generation</t>
-  </si>
-  <si>
-    <t>Power Transmission</t>
-  </si>
-  <si>
-    <t>Fuel Transmission</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>#7F7F7F</t>
-  </si>
-  <si>
-    <t>#BAB0AC</t>
-  </si>
-  <si>
-    <t>rgb(158,185,243)</t>
-  </si>
-  <si>
-    <t>#19D3F3</t>
-  </si>
-  <si>
-    <t>#778AAE</t>
-  </si>
-  <si>
-    <t>#E377C2</t>
-  </si>
-  <si>
-    <t>#7E7DCD</t>
-  </si>
-  <si>
-    <t>#E48F72</t>
-  </si>
-  <si>
     <t>#DEA0FD</t>
   </si>
   <si>
-    <t>#FF9900</t>
-  </si>
-  <si>
-    <t>Extraction Units</t>
-  </si>
-  <si>
-    <t>1000b/d</t>
-  </si>
-  <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>1000 BOE</t>
-  </si>
-  <si>
-    <t>GWh</t>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Fuel</t>
   </si>
   <si>
     <t>Electricity</t>
   </si>
   <si>
+    <t>#0099C6</t>
+  </si>
+  <si>
     <t>Final Diesel Oil</t>
   </si>
   <si>
     <t>Final Electricity</t>
   </si>
   <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>#0099C6</t>
-  </si>
-  <si>
     <t>#1F77B4</t>
   </si>
   <si>
@@ -231,12 +239,15 @@
   </si>
   <si>
     <t>#8C564B</t>
+  </si>
+  <si>
+    <t>ton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,6 +398,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -422,6 +450,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -597,24 +642,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.3671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.47265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -634,204 +675,204 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
       <c r="F7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -840,20 +881,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="12.47265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.41796875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -870,7 +907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -878,16 +915,16 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -895,64 +932,64 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -961,16 +998,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -981,15 +1018,46 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Utopia2_planning_single_node_DN/config.xlsx
+++ b/examples/Utopia2_planning_single_node_DN/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/negarnamazifard/Documents/GitHub/Hypatia_SESAM/examples/Utopia2_planning_single_node_DN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammadamintahavori/Documents/GitHub/Hypatia_sesam/examples/Utopia2_planning_single_node_DN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8046682-58FF-FE43-A5A3-67251D364C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717C613D-45CE-4044-91D5-A9E1D6B39B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15000" windowHeight="16480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Techs" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>tech_name</t>
   </si>
@@ -118,9 +118,6 @@
     <t>emission_unit</t>
   </si>
   <si>
-    <t>CO2-equivalent</t>
-  </si>
-  <si>
     <t>Oil Resource Extraction</t>
   </si>
   <si>
@@ -242,6 +239,15 @@
   </si>
   <si>
     <t>ton</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CO2 emissions</t>
+  </si>
+  <si>
+    <t>emission_name</t>
   </si>
 </sst>
 </file>
@@ -680,19 +686,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -700,19 +706,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -720,19 +726,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -740,19 +746,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -760,19 +766,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -780,19 +786,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -800,19 +806,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -820,19 +826,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -840,19 +846,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -860,19 +866,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -915,13 +921,13 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -932,13 +938,13 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -946,16 +952,16 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -963,16 +969,16 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -980,16 +986,16 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1023,10 +1029,10 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1036,28 +1042,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
